--- a/CH-087 Price List.xlsx
+++ b/CH-087 Price List.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mbieg\Dropbox\GitHub\PowerQueryBitsAndPieces\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAAA78C7-91A6-4935-A6EB-F8990D89ABFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{135E0F3A-838A-4CCE-8E79-4CD81D92D873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
+    <sheet name="EDA" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,8 +36,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="10">
   <si>
     <t>From Date</t>
   </si>
@@ -72,6 +95,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-409]d/mmm/yyyy;@"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -222,7 +248,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -273,6 +299,11 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -373,13 +404,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>137159</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -394,8 +425,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="95250" y="2857501"/>
-          <a:ext cx="6962775" cy="1695450"/>
+          <a:off x="95250" y="2533650"/>
+          <a:ext cx="6267450" cy="1908809"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -807,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1115,4 +1146,686 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{343D5726-6E0C-4295-8FCD-133FDDC902A1}">
+  <dimension ref="A1:W28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3" style="3" customWidth="1"/>
+    <col min="2" max="4" width="10.109375" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" customWidth="1"/>
+    <col min="6" max="6" width="6.33203125" customWidth="1"/>
+    <col min="7" max="10" width="10.21875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="6" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="G1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="6">
+        <v>2</v>
+      </c>
+      <c r="M1" s="19"/>
+    </row>
+    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="1" t="str" cm="1">
+        <f t="array" ref="L2">INDEX(H3:H11,L1)</f>
+        <v>A</v>
+      </c>
+      <c r="M2" s="20" cm="1">
+        <f t="array" ref="M2">INDEX(G3:G11,L1)</f>
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="14">
+        <v>44927</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="16">
+        <v>10</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3" s="5">
+        <v>44978</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="9">
+        <v>41</v>
+      </c>
+      <c r="J3" s="12">
+        <v>12</v>
+      </c>
+      <c r="L3" s="18" cm="1">
+        <f t="array" ref="L3:N6">_xlfn._xlws.FILTER(B3:D9,C3:C9=L2)</f>
+        <v>44927</v>
+      </c>
+      <c r="M3" s="1" t="str">
+        <v>A</v>
+      </c>
+      <c r="N3" s="1">
+        <v>10</v>
+      </c>
+      <c r="P3" s="1">
+        <f>_xlfn.XLOOKUP(M2,L3:L5,N3:N5,,-1)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="14">
+        <v>44927</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="16">
+        <v>12</v>
+      </c>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4" s="5">
+        <v>44986</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="9">
+        <v>10</v>
+      </c>
+      <c r="J4" s="12">
+        <v>10</v>
+      </c>
+      <c r="L4" s="18">
+        <v>45033</v>
+      </c>
+      <c r="M4" s="1" t="str">
+        <v>A</v>
+      </c>
+      <c r="N4" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="14">
+        <v>45033</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="16">
+        <v>15</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="G5" s="5">
+        <v>44995</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="9">
+        <v>10</v>
+      </c>
+      <c r="J5" s="12">
+        <v>12</v>
+      </c>
+      <c r="L5" s="18">
+        <v>45133</v>
+      </c>
+      <c r="M5" s="1" t="str">
+        <v>A</v>
+      </c>
+      <c r="N5" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3"/>
+      <c r="B6" s="14">
+        <v>45033</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="16">
+        <v>18</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6" s="5">
+        <v>45038</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="9">
+        <v>9</v>
+      </c>
+      <c r="J6" s="12">
+        <v>18</v>
+      </c>
+      <c r="L6" s="1">
+        <v>45233</v>
+      </c>
+      <c r="M6" s="1" t="str">
+        <v>A</v>
+      </c>
+      <c r="N6" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="14">
+        <v>45133</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="16">
+        <v>18</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="5">
+        <v>45042</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="9">
+        <v>6</v>
+      </c>
+      <c r="J7" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B8" s="14">
+        <v>45233</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="16">
+        <v>21</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="5">
+        <v>45048</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="9">
+        <v>39</v>
+      </c>
+      <c r="J8" s="12">
+        <v>15</v>
+      </c>
+      <c r="Q8">
+        <f>P3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B9" s="14">
+        <v>45233</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="16">
+        <v>20</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="5">
+        <v>45048</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="9">
+        <v>42</v>
+      </c>
+      <c r="J9" s="12">
+        <v>18</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9">
+        <f t="dataTable" ref="Q9:Q17" dt2D="0" dtr="0" r1="L1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F10" s="2"/>
+      <c r="G10" s="5">
+        <v>45078</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="9">
+        <v>12</v>
+      </c>
+      <c r="J10" s="12">
+        <v>15</v>
+      </c>
+      <c r="P10">
+        <v>2</v>
+      </c>
+      <c r="Q10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F11" s="2"/>
+      <c r="G11" s="5">
+        <v>45157</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="9">
+        <v>18</v>
+      </c>
+      <c r="J11" s="12">
+        <v>18</v>
+      </c>
+      <c r="P11">
+        <v>3</v>
+      </c>
+      <c r="Q11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F12" s="2"/>
+      <c r="G12" s="8"/>
+      <c r="P12">
+        <v>4</v>
+      </c>
+      <c r="Q12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F13" s="2"/>
+      <c r="G13" s="8"/>
+      <c r="P13">
+        <v>5</v>
+      </c>
+      <c r="Q13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="P14">
+        <v>6</v>
+      </c>
+      <c r="Q14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="P15">
+        <v>7</v>
+      </c>
+      <c r="Q15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="P16">
+        <v>8</v>
+      </c>
+      <c r="Q16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="7:23" x14ac:dyDescent="0.3">
+      <c r="G17" s="2"/>
+      <c r="P17">
+        <v>9</v>
+      </c>
+      <c r="Q17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="7:23" x14ac:dyDescent="0.3">
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="7:23" x14ac:dyDescent="0.3">
+      <c r="G19" s="2"/>
+      <c r="O19" s="4" t="str" cm="1">
+        <f t="array" ref="O19:R28">_xlfn.HSTACK(G2:I11,_xlfn.VSTACK(J2,Q9:Q17))</f>
+        <v>Date</v>
+      </c>
+      <c r="P19" s="7" t="str">
+        <v>Product</v>
+      </c>
+      <c r="Q19" s="7" t="str">
+        <v>Quantity</v>
+      </c>
+      <c r="R19" s="11" t="str">
+        <v>Price</v>
+      </c>
+      <c r="T19" t="b" cm="1">
+        <f t="array" ref="T19:W28">_xlfn.ANCHORARRAY(O19)=G2:J11</f>
+        <v>1</v>
+      </c>
+      <c r="U19" t="b">
+        <v>1</v>
+      </c>
+      <c r="V19" t="b">
+        <v>1</v>
+      </c>
+      <c r="W19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="7:23" x14ac:dyDescent="0.3">
+      <c r="G20" s="2"/>
+      <c r="O20" s="5">
+        <v>44978</v>
+      </c>
+      <c r="P20" s="9" t="str">
+        <v>B</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>41</v>
+      </c>
+      <c r="R20" s="12">
+        <v>12</v>
+      </c>
+      <c r="T20" t="b">
+        <v>1</v>
+      </c>
+      <c r="U20" t="b">
+        <v>1</v>
+      </c>
+      <c r="V20" t="b">
+        <v>1</v>
+      </c>
+      <c r="W20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="7:23" x14ac:dyDescent="0.3">
+      <c r="G21" s="2"/>
+      <c r="O21" s="5">
+        <v>44986</v>
+      </c>
+      <c r="P21" s="9" t="str">
+        <v>A</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>10</v>
+      </c>
+      <c r="R21" s="12">
+        <v>10</v>
+      </c>
+      <c r="T21" t="b">
+        <v>1</v>
+      </c>
+      <c r="U21" t="b">
+        <v>1</v>
+      </c>
+      <c r="V21" t="b">
+        <v>1</v>
+      </c>
+      <c r="W21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="7:23" x14ac:dyDescent="0.3">
+      <c r="O22" s="5">
+        <v>44995</v>
+      </c>
+      <c r="P22" s="9" t="str">
+        <v>B</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>10</v>
+      </c>
+      <c r="R22" s="12">
+        <v>12</v>
+      </c>
+      <c r="T22" t="b">
+        <v>1</v>
+      </c>
+      <c r="U22" t="b">
+        <v>1</v>
+      </c>
+      <c r="V22" t="b">
+        <v>1</v>
+      </c>
+      <c r="W22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="7:23" x14ac:dyDescent="0.3">
+      <c r="O23" s="5">
+        <v>45038</v>
+      </c>
+      <c r="P23" s="9" t="str">
+        <v>B</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>9</v>
+      </c>
+      <c r="R23" s="12">
+        <v>18</v>
+      </c>
+      <c r="T23" t="b">
+        <v>1</v>
+      </c>
+      <c r="U23" t="b">
+        <v>1</v>
+      </c>
+      <c r="V23" t="b">
+        <v>1</v>
+      </c>
+      <c r="W23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="7:23" x14ac:dyDescent="0.3">
+      <c r="O24" s="5">
+        <v>45042</v>
+      </c>
+      <c r="P24" s="9" t="str">
+        <v>B</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>6</v>
+      </c>
+      <c r="R24" s="12">
+        <v>18</v>
+      </c>
+      <c r="T24" t="b">
+        <v>1</v>
+      </c>
+      <c r="U24" t="b">
+        <v>1</v>
+      </c>
+      <c r="V24" t="b">
+        <v>1</v>
+      </c>
+      <c r="W24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="7:23" x14ac:dyDescent="0.3">
+      <c r="O25" s="5">
+        <v>45048</v>
+      </c>
+      <c r="P25" s="9" t="str">
+        <v>A</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>39</v>
+      </c>
+      <c r="R25" s="12">
+        <v>15</v>
+      </c>
+      <c r="T25" t="b">
+        <v>1</v>
+      </c>
+      <c r="U25" t="b">
+        <v>1</v>
+      </c>
+      <c r="V25" t="b">
+        <v>1</v>
+      </c>
+      <c r="W25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="7:23" x14ac:dyDescent="0.3">
+      <c r="O26" s="5">
+        <v>45048</v>
+      </c>
+      <c r="P26" s="9" t="str">
+        <v>B</v>
+      </c>
+      <c r="Q26" s="9">
+        <v>42</v>
+      </c>
+      <c r="R26" s="12">
+        <v>18</v>
+      </c>
+      <c r="T26" t="b">
+        <v>1</v>
+      </c>
+      <c r="U26" t="b">
+        <v>1</v>
+      </c>
+      <c r="V26" t="b">
+        <v>1</v>
+      </c>
+      <c r="W26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="7:23" x14ac:dyDescent="0.3">
+      <c r="O27" s="5">
+        <v>45078</v>
+      </c>
+      <c r="P27" s="9" t="str">
+        <v>A</v>
+      </c>
+      <c r="Q27" s="9">
+        <v>12</v>
+      </c>
+      <c r="R27" s="12">
+        <v>15</v>
+      </c>
+      <c r="T27" t="b">
+        <v>1</v>
+      </c>
+      <c r="U27" t="b">
+        <v>1</v>
+      </c>
+      <c r="V27" t="b">
+        <v>1</v>
+      </c>
+      <c r="W27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="7:23" x14ac:dyDescent="0.3">
+      <c r="O28" s="5">
+        <v>45157</v>
+      </c>
+      <c r="P28" s="9" t="str">
+        <v>A</v>
+      </c>
+      <c r="Q28" s="9">
+        <v>18</v>
+      </c>
+      <c r="R28" s="12">
+        <v>18</v>
+      </c>
+      <c r="T28" t="b">
+        <v>1</v>
+      </c>
+      <c r="U28" t="b">
+        <v>1</v>
+      </c>
+      <c r="V28" t="b">
+        <v>1</v>
+      </c>
+      <c r="W28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="G1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>